--- a/data/trans_camb/IP08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 6,51</t>
+          <t>-7,43; 28,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,48</t>
+          <t>-19,03; 4,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,09</t>
+          <t>-7,3; 35,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,26</t>
+          <t>-13,74; 19,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,59</t>
+          <t>-16,47; 16,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,4</t>
+          <t>-18,57; 12,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,9</t>
+          <t>-5,31; 19,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,72</t>
+          <t>-13,5; 6,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,85</t>
+          <t>-7,55; 16,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>107,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-54,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>122,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>-19,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-30,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 62,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 21,0</t>
+          <t>-78,62; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 178,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 96,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 117,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 78,54</t>
+          <t>-46,92; 403,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 19,63</t>
+          <t>-89,29; 176,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 32,49</t>
+          <t>-57,45; 360,16</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,89</t>
+          <t>-4,67; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,04</t>
+          <t>-9,31; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,54</t>
+          <t>-8,05; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,09</t>
+          <t>0,91; 10,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -1,85</t>
+          <t>-2,72; 5,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,68</t>
+          <t>-2,94; 7,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,24</t>
+          <t>-0,63; 6,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -2,24</t>
+          <t>-4,95; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,72</t>
+          <t>-4,22; 2,85</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,77%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>-23,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-54,22%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-48,56%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>-8,07%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 98,05</t>
+          <t>-30,06; 62,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 2,25</t>
+          <t>-57,97; 5,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 128,32</t>
+          <t>-49,87; 21,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 47,65</t>
+          <t>7,3; 178,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,72; -16,12</t>
+          <t>-27,35; 96,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 42,83</t>
+          <t>-32,3; 117,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 46,53</t>
+          <t>-4,9; 78,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,83; -23,52</t>
+          <t>-40,05; 19,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 63,27</t>
+          <t>-34,03; 32,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 28,05</t>
+          <t>-0,95; 11,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 4,48</t>
+          <t>-9,82; -0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 35,58</t>
+          <t>-4,99; 7,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 19,31</t>
+          <t>2,08; 12,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 16,86</t>
+          <t>-3,62; 4,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 12,67</t>
+          <t>-1,89; 8,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 19,64</t>
+          <t>1,97; 9,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 6,97</t>
+          <t>-5,46; 1,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 16,34</t>
+          <t>-2,02; 5,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>107,3%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-46,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>122,13%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>123,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,58%</t>
+          <t>-28,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>21,88%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 161,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,32; -2,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,62; —</t>
+          <t>-40,1; 89,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,04; 343,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,86; 131,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,58; 230,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 403,72</t>
+          <t>21,03; 164,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-89,29; 176,62</t>
+          <t>-55,73; 23,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 360,16</t>
+          <t>-20,18; 93,31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 11,36</t>
+          <t>-2,77; 7,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,29</t>
+          <t>-8,66; -0,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 7,08</t>
+          <t>-1,07; 10,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,81</t>
+          <t>-5,94; 4,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,94</t>
+          <t>-11,0; -1,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,13</t>
+          <t>-6,71; 3,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,76</t>
+          <t>-3,36; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,29</t>
+          <t>-8,56; -2,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,8</t>
+          <t>-2,64; 5,72</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-46,71%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>123,97%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-28,3%</t>
+          <t>-48,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 161,37</t>
+          <t>-21,45; 98,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -2,07</t>
+          <t>-67,56; 2,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 89,3</t>
+          <t>-9,31; 128,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,04; 343,13</t>
+          <t>-45,37; 47,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 131,21</t>
+          <t>-75,72; -16,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 230,05</t>
+          <t>-51,03; 42,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>21,03; 164,59</t>
+          <t>-26,4; 46,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 23,25</t>
+          <t>-65,83; -23,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 93,31</t>
+          <t>-19,49; 63,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 28,05</t>
+          <t>-6,44; 29,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 4,48</t>
+          <t>-18,22; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 35,58</t>
+          <t>-7,22; 36,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 19,31</t>
+          <t>-14,43; 20,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 16,86</t>
+          <t>-16,43; 17,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 12,67</t>
+          <t>-16,17; 12,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 19,64</t>
+          <t>-6,4; 18,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 6,97</t>
+          <t>-13,76; 7,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 16,34</t>
+          <t>-6,82; 17,15</t>
         </is>
       </c>
     </row>
@@ -791,19 +791,19 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-69,6; 869,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-78,62; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 403,72</t>
+          <t>-51,22; 386,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,29; 176,62</t>
+          <t>-88,65; 228,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 360,16</t>
+          <t>-53,88; 380,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 4,75</t>
+          <t>-8,13; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 0,96</t>
+          <t>-10,82; 1,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 17,81</t>
+          <t>-5,81; 18,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,58</t>
+          <t>-2,31; 9,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,93</t>
+          <t>-6,08; 4,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 10,09</t>
+          <t>-1,57; 10,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,03</t>
+          <t>-3,81; 5,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 1,1</t>
+          <t>-7,03; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 12,38</t>
+          <t>-2,22; 12,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 55,7</t>
+          <t>-53,1; 65,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 16,58</t>
+          <t>-72,99; 19,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 203,82</t>
+          <t>-45,1; 214,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 249,28</t>
+          <t>-32,15; 224,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 104,01</t>
+          <t>-69,87; 116,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 251,29</t>
+          <t>-22,99; 277,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 71,06</t>
+          <t>-31,71; 77,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,43; 16,56</t>
+          <t>-60,4; 8,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 171,28</t>
+          <t>-23,84; 178,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 6,51</t>
+          <t>-4,48; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 0,48</t>
+          <t>-9,74; 0,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,09</t>
+          <t>-8,0; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,26</t>
+          <t>0,67; 10,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 5,59</t>
+          <t>-3,24; 5,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,4</t>
+          <t>-3,23; 7,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,9</t>
+          <t>-0,75; 6,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,72</t>
+          <t>-4,82; 1,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,85</t>
+          <t>-4,38; 2,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 62,72</t>
+          <t>-28,3; 55,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 5,0</t>
+          <t>-58,59; 5,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 21,0</t>
+          <t>-49,26; 20,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 178,56</t>
+          <t>5,44; 164,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 96,28</t>
+          <t>-30,14; 90,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 117,5</t>
+          <t>-35,43; 107,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 78,54</t>
+          <t>-7,85; 75,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 19,63</t>
+          <t>-38,45; 21,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 32,49</t>
+          <t>-34,63; 30,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 11,36</t>
+          <t>-0,69; 10,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,29</t>
+          <t>-9,38; 0,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 7,08</t>
+          <t>-5,39; 6,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 12,81</t>
+          <t>2,28; 12,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,94</t>
+          <t>-3,29; 4,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,13</t>
+          <t>-1,91; 7,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,76</t>
+          <t>2,38; 10,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,29</t>
+          <t>-5,43; 0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,8</t>
+          <t>-1,58; 6,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 161,37</t>
+          <t>-7,17; 141,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,32; -2,07</t>
+          <t>-71,66; 6,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 89,3</t>
+          <t>-43,12; 89,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,04; 343,13</t>
+          <t>23,64; 334,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 131,21</t>
+          <t>-44,98; 154,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 230,05</t>
+          <t>-28,84; 203,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,03; 164,59</t>
+          <t>23,05; 162,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 23,25</t>
+          <t>-55,34; 14,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 93,31</t>
+          <t>-17,34; 90,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,89</t>
+          <t>-2,41; 7,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,04</t>
+          <t>-8,74; -0,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,54</t>
+          <t>-1,22; 10,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,09</t>
+          <t>-5,81; 4,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -1,85</t>
+          <t>-10,47; -1,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,68</t>
+          <t>-6,64; 3,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,24</t>
+          <t>-2,75; 4,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -2,24</t>
+          <t>-8,41; -1,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,72</t>
+          <t>-2,48; 5,55</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 98,05</t>
+          <t>-21,81; 89,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 2,25</t>
+          <t>-66,75; -0,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 128,32</t>
+          <t>-9,48; 127,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 47,65</t>
+          <t>-42,95; 49,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,72; -16,12</t>
+          <t>-75,93; -17,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 42,83</t>
+          <t>-49,83; 41,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 46,53</t>
+          <t>-22,44; 50,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,83; -23,52</t>
+          <t>-65,71; -18,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 63,27</t>
+          <t>-20,73; 62,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,83</t>
+          <t>-0,81; 4,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -2,31</t>
+          <t>-7,21; -2,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,55</t>
+          <t>-2,29; 4,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,9</t>
+          <t>0,68; 5,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,7</t>
+          <t>-3,76; 0,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,7</t>
+          <t>-1,57; 3,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,58</t>
+          <t>0,71; 4,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,51</t>
+          <t>-4,73; -1,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,99</t>
+          <t>-0,97; 3,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 46,35</t>
+          <t>-6,93; 46,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,47; -21,96</t>
+          <t>-54,55; -20,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 43,76</t>
+          <t>-17,58; 43,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,67; 84,63</t>
+          <t>6,81; 83,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 10,26</t>
+          <t>-39,75; 10,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 53,8</t>
+          <t>-17,07; 54,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,16; 50,84</t>
+          <t>6,35; 52,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,99; -16,51</t>
+          <t>-43,3; -13,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 32,09</t>
+          <t>-9,25; 36,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 29,39</t>
+          <t>-6,49; 29,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,21</t>
+          <t>-18,74; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 36,36</t>
+          <t>-7,15; 35,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 20,39</t>
+          <t>-17,15; 18,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 17,28</t>
+          <t>-16,18; 18,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 12,93</t>
+          <t>-19,01; 11,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 18,69</t>
+          <t>-6,22; 20,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 7,93</t>
+          <t>-13,79; 7,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 17,15</t>
+          <t>-8,31; 15,86</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 869,76</t>
+          <t>-73,19; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,44 +801,44 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-72,24; 1359,91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 386,97</t>
+          <t>-48,75; 465,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,65; 228,46</t>
+          <t>-88,85; 204,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 380,32</t>
+          <t>-62,16; 288,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 5,37</t>
+          <t>-7,93; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 1,12</t>
+          <t>-11,01; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 18,71</t>
+          <t>-6,02; 18,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 9,08</t>
+          <t>-2,65; 9,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 4,19</t>
+          <t>-6,0; 3,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 10,3</t>
+          <t>-2,38; 10,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,23</t>
+          <t>-3,51; 4,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,77</t>
+          <t>-6,8; 1,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 12,56</t>
+          <t>-2,0; 13,91</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 65,93</t>
+          <t>-52,83; 56,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 19,16</t>
+          <t>-70,57; 15,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 214,44</t>
+          <t>-46,29; 200,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 224,03</t>
+          <t>-37,4; 239,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 116,1</t>
+          <t>-65,77; 111,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 277,42</t>
+          <t>-34,32; 256,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 77,23</t>
+          <t>-33,13; 66,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,4; 8,57</t>
+          <t>-60,62; 16,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 178,86</t>
+          <t>-23,88; 152,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,84</t>
+          <t>-4,76; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,73</t>
+          <t>-9,09; 0,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,02</t>
+          <t>-8,28; 1,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 10,45</t>
+          <t>0,52; 10,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,56</t>
+          <t>-2,5; 6,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,12</t>
+          <t>-2,57; 6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,84</t>
+          <t>-0,53; 6,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,99</t>
+          <t>-4,9; 1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,71</t>
+          <t>-4,06; 2,81</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 55,8</t>
+          <t>-29,34; 56,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 5,73</t>
+          <t>-57,63; 6,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 20,86</t>
+          <t>-51,92; 17,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 164,0</t>
+          <t>5,63; 185,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 90,12</t>
+          <t>-26,44; 111,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 107,4</t>
+          <t>-26,74; 124,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 75,2</t>
+          <t>-4,3; 72,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 21,96</t>
+          <t>-38,19; 20,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 30,25</t>
+          <t>-33,29; 29,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,9</t>
+          <t>-0,93; 10,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 0,23</t>
+          <t>-10,06; -0,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 6,84</t>
+          <t>-5,32; 6,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 12,02</t>
+          <t>2,8; 12,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,95</t>
+          <t>-3,71; 4,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,68</t>
+          <t>-1,87; 7,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,22</t>
+          <t>2,03; 9,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,84</t>
+          <t>-5,64; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,0</t>
+          <t>-1,73; 5,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 141,63</t>
+          <t>-8,95; 161,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 6,35</t>
+          <t>-73,37; -0,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 89,02</t>
+          <t>-42,23; 99,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,64; 334,78</t>
+          <t>30,15; 344,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 154,06</t>
+          <t>-48,14; 140,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 203,76</t>
+          <t>-30,25; 215,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,05; 162,0</t>
+          <t>19,51; 156,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 14,03</t>
+          <t>-55,65; 13,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 90,68</t>
+          <t>-17,39; 92,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 7,39</t>
+          <t>-2,43; 8,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -0,22</t>
+          <t>-9,35; -0,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 10,19</t>
+          <t>-1,49; 9,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,23</t>
+          <t>-5,68; 4,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,74</t>
+          <t>-10,78; -2,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 3,39</t>
+          <t>-7,05; 4,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 4,32</t>
+          <t>-3,29; 4,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -1,89</t>
+          <t>-8,3; -2,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,55</t>
+          <t>-2,41; 5,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 89,27</t>
+          <t>-20,36; 100,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,75; -0,28</t>
+          <t>-69,39; -3,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 127,18</t>
+          <t>-12,36; 114,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 49,33</t>
+          <t>-42,64; 51,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,93; -17,67</t>
+          <t>-76,97; -15,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 41,07</t>
+          <t>-51,7; 52,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 50,04</t>
+          <t>-25,05; 47,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,71; -18,79</t>
+          <t>-65,37; -21,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 62,36</t>
+          <t>-17,75; 59,44</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,7</t>
+          <t>-0,72; 4,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -2,12</t>
+          <t>-6,96; -2,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,43</t>
+          <t>-2,21; 4,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,97</t>
+          <t>0,56; 6,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,77</t>
+          <t>-3,92; 0,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,92</t>
+          <t>-1,62; 3,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,81</t>
+          <t>0,69; 4,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,23</t>
+          <t>-4,73; -1,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,39</t>
+          <t>-0,81; 3,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 46,16</t>
+          <t>-5,83; 47,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -20,58</t>
+          <t>-54,28; -21,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 43,11</t>
+          <t>-17,6; 40,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,81; 83,64</t>
+          <t>5,48; 86,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 10,7</t>
+          <t>-41,7; 12,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 54,24</t>
+          <t>-17,33; 51,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,35; 52,02</t>
+          <t>6,21; 52,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,3; -13,87</t>
+          <t>-43,87; -15,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 36,33</t>
+          <t>-7,77; 35,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 29,76</t>
+          <t>-2,42; 8,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 3,84</t>
+          <t>-6,12; 3,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 35,01</t>
+          <t>-2,07; 8,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 18,49</t>
+          <t>-5,67; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 18,65</t>
+          <t>-10,21; 0,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 11,66</t>
+          <t>-4,04; 28,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 20,5</t>
+          <t>-2,69; 5,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 7,3</t>
+          <t>-6,39; 1,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 15,86</t>
+          <t>-0,71; 16,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>107,3%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>122,13%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>-41,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,58%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>49,05%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,19; —</t>
+          <t>-28,12; 196,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,27; 88,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 1359,91</t>
+          <t>-25,17; 185,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,82; 75,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,97; 11,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,16; 354,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 465,69</t>
+          <t>-23,18; 82,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,85; 204,1</t>
+          <t>-57,03; 15,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,16; 288,63</t>
+          <t>-8,76; 217,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 4,92</t>
+          <t>0,91; 10,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 0,69</t>
+          <t>-2,72; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 18,75</t>
+          <t>-1,95; 13,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 9,14</t>
+          <t>-4,67; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 3,96</t>
+          <t>-9,31; 0,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 10,16</t>
+          <t>-8,07; 2,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,88</t>
+          <t>-0,63; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 1,0</t>
+          <t>-4,95; 1,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 13,91</t>
+          <t>-3,62; 4,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,74%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-39,79%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>-23,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,94%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>-1,42%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 56,52</t>
+          <t>7,3; 178,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 15,42</t>
+          <t>-27,35; 96,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 200,62</t>
+          <t>-23,44; 222,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 239,2</t>
+          <t>-30,06; 62,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,77; 111,79</t>
+          <t>-57,97; 5,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 256,63</t>
+          <t>-49,34; 21,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 66,45</t>
+          <t>-4,9; 78,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 16,02</t>
+          <t>-40,05; 19,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 152,56</t>
+          <t>-29,43; 53,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,07</t>
+          <t>2,08; 12,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 0,28</t>
+          <t>-3,62; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,8</t>
+          <t>-3,09; 6,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 10,5</t>
+          <t>-0,95; 11,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,05</t>
+          <t>-9,82; -0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,98</t>
+          <t>-5,0; 7,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,61</t>
+          <t>1,97; 9,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,83</t>
+          <t>-5,46; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,81</t>
+          <t>-2,59; 5,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>123,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,55%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>-46,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-28,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 56,69</t>
+          <t>23,04; 343,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 6,86</t>
+          <t>-47,86; 131,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 17,13</t>
+          <t>-38,39; 184,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 185,79</t>
+          <t>-9,52; 161,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 111,29</t>
+          <t>-73,32; -2,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 124,82</t>
+          <t>-40,09; 94,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 72,69</t>
+          <t>21,03; 164,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 20,41</t>
+          <t>-55,73; 23,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 29,65</t>
+          <t>-26,14; 90,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,92</t>
+          <t>-5,94; 4,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -0,11</t>
+          <t>-11,0; -1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,96</t>
+          <t>-6,76; 3,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,68</t>
+          <t>-2,77; 7,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,67</t>
+          <t>-8,66; -0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,88</t>
+          <t>-0,72; 11,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,71</t>
+          <t>-3,36; 4,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 0,78</t>
+          <t>-8,56; -2,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 5,8</t>
+          <t>-2,16; 6,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,71%</t>
+          <t>-54,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>-14,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>123,97%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>-42,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>45,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,3%</t>
+          <t>-48,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 161,71</t>
+          <t>-45,37; 47,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,37; -0,25</t>
+          <t>-75,72; -16,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 99,38</t>
+          <t>-51,2; 44,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,15; 344,3</t>
+          <t>-21,45; 98,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 140,5</t>
+          <t>-67,56; 2,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 215,38</t>
+          <t>-7,53; 136,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,51; 156,69</t>
+          <t>-26,4; 46,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 13,12</t>
+          <t>-65,83; -23,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 92,21</t>
+          <t>-16,46; 68,98</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 8,35</t>
+          <t>0,79; 5,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -0,54</t>
+          <t>-3,9; 0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,86</t>
+          <t>-1,55; 4,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 4,12</t>
+          <t>-0,72; 4,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,78; -2,04</t>
+          <t>-7,22; -2,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 4,01</t>
+          <t>-1,71; 6,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,37</t>
+          <t>1,01; 4,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -2,04</t>
+          <t>-4,78; -1,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,32</t>
+          <t>-0,98; 4,08</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-42,77%</t>
+          <t>-17,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-54,22%</t>
+          <t>-40,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-48,56%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 100,2</t>
+          <t>7,67; 84,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,39; -3,94</t>
+          <t>-40,67; 10,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 114,83</t>
+          <t>-16,68; 63,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 51,59</t>
+          <t>-6,27; 46,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -15,94</t>
+          <t>-55,47; -21,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 52,57</t>
+          <t>-14,27; 59,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 47,35</t>
+          <t>9,16; 50,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,37; -21,35</t>
+          <t>-43,99; -16,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 59,44</t>
+          <t>-9,77; 43,31</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 4,91</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; -2,16</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 4,39</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 6,11</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 0,89</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 3,59</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 4,65</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; -1,33</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 3,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>17,56%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-40,01%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>41,2%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-17,84%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>27,08%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 47,65</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-54,28; -21,49</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 40,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 86,92</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-41,7; 12,59</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 51,98</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 52,02</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-43,87; -15,22</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 35,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
